--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\MicrophoneLevelLogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4801D6-1961-44B8-8BAC-436A01649299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354B5FAA-5C81-4B91-A86B-E13CE26B3BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17130" yWindow="3330" windowWidth="30990" windowHeight="23370" xr2:uid="{D62692A6-2D1C-4E86-AC54-CA55A0F9CE04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Controller</t>
     <phoneticPr fontId="1"/>
@@ -128,6 +128,66 @@
     <t>音量サマリー</t>
     <rPh sb="0" eb="2">
       <t>オンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英語</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量</t>
+    <rPh sb="0" eb="2">
+      <t>オンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクやスピーカーの入出力レベル</t>
+    <rPh sb="10" eb="13">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクで録音した音量。単位はDecibel</t>
+    <rPh sb="4" eb="6">
+      <t>ロクオン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -493,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9959DAAF-42EA-41F3-99CA-AD1407AF72CD}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -626,6 +686,39 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
